--- a/assets/upload/Template_Billing_Customer.xlsx
+++ b/assets/upload/Template_Billing_Customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">contract_no</t>
   </si>
@@ -37,16 +37,26 @@
     <t xml:space="preserve">bank_account</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-08-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">mandiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,8 +139,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -154,13 +172,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
@@ -180,7 +198,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -194,12 +212,56 @@
       <c r="C2" s="0" t="n">
         <v>1063207</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>44793</v>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2208200006</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1109869</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
